--- a/data/income_statement/2digits/size/07_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/07_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>07-Mining of metal ores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>07-Mining of metal ores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,257 +841,292 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>16691.76573</v>
+        <v>22100.95453</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>21581.60464</v>
+        <v>27360.44565</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>25429.63193</v>
+        <v>32717.93038</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>36298.92681</v>
+        <v>43168.44684</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>43686.33781</v>
+        <v>56990.72949</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>26167.92318</v>
+        <v>41213.30682</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>31556.65787</v>
+        <v>43810.78036</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>31982.43179</v>
+        <v>50528.01840000001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>30000.59428</v>
+        <v>49576.21385</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>122485.60571</v>
+        <v>159335.33186</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>130440.69643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>178802.90345</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>201213.615</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>13944.47522</v>
+        <v>17482.16434</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>19863.89298</v>
+        <v>22590.72963</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>22407.51586</v>
+        <v>26972.53342</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>33449.54415</v>
+        <v>38638.93455</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>40265.88862000001</v>
+        <v>50318.82744</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>22588.1596</v>
+        <v>33994.78301</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>27974.6844</v>
+        <v>35638.56655</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>28338.38054</v>
+        <v>41951.26606</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>21443.44872</v>
+        <v>35689.16158</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>106971.35249</v>
+        <v>138938.23505</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>110552.30211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>150789.98936</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>163524.564</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1802.64499</v>
+        <v>2702.46425</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1530.14054</v>
+        <v>2926.52204</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>675.19314</v>
+        <v>2277.47754</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1629.54258</v>
+        <v>1738.34286</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2783.58642</v>
+        <v>3944.81048</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2959.44573</v>
+        <v>3596.50205</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2204.2362</v>
+        <v>3559.6105</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3020.66977</v>
+        <v>3271.31478</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>5926.35717</v>
+        <v>7133.22832</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>10925.33539</v>
+        <v>11281.13462</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15637.37194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18960.47373</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>24593.674</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>944.64552</v>
+        <v>1916.32594</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>187.57112</v>
+        <v>1843.19398</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2346.92293</v>
+        <v>3467.91942</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1219.84008</v>
+        <v>2791.16943</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>636.8627700000001</v>
+        <v>2727.09157</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>620.31785</v>
+        <v>3622.02176</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1377.73727</v>
+        <v>4612.60331</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>623.38148</v>
+        <v>5305.43756</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2630.78839</v>
+        <v>6753.823949999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4588.91783</v>
+        <v>9115.96219</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4251.02238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9052.440359999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>13095.377</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>118.94213</v>
+        <v>123.53277</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>30.15412</v>
+        <v>37.77983999999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>179.95059</v>
+        <v>221.57006</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>31.71811</v>
+        <v>826.5895899999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>423.15449</v>
+        <v>433.34275</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>128.1609</v>
+        <v>133.72265</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>70.00472000000001</v>
+        <v>85.60791999999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>183.3441</v>
+        <v>199.85451</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>26.09</v>
+        <v>51.88071</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>353.90786</v>
+        <v>371.99363</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>322.0779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>599.3955500000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>9021.525</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>116.86537</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>12.48326</v>
+        <v>17.48326</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>178.1997</v>
+        <v>186.5721</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>22.40116</v>
+        <v>817.27264</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>262.88109</v>
+        <v>272.63743</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>119.38493</v>
+        <v>120.31212</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>66.06360000000001</v>
+        <v>80.41680000000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>172.85366</v>
+        <v>189.36407</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>25.94</v>
+        <v>51.73071</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>259.75385</v>
+        <v>277.83962</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>321.7779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>325.76748</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>8068.906</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2.07676</v>
+        <v>6.52639</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>17.67086</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1.75089</v>
+        <v>20.17566</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>0</v>
@@ -1199,7 +1135,7 @@
         <v>160.2734</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>0</v>
+        <v>4.63456</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>3.94112</v>
@@ -1214,34 +1150,39 @@
         <v>34.15632</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23.04566</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>22.681</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>0</v>
+        <v>0.14101</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>0</v>
+        <v>2.62572</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>0</v>
+        <v>14.8223</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>9.31695</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>0</v>
+        <v>0.43192</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>8.775969999999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>10.49044</v>
@@ -1253,526 +1194,596 @@
         <v>59.99769000000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>250.58241</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>929.938</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>16572.8236</v>
+        <v>21977.42176</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>21551.45052</v>
+        <v>27322.66581</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>25249.68134</v>
+        <v>32496.36032</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>36267.2087</v>
+        <v>42341.85725</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>43263.18332</v>
+        <v>56557.38673999999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>26039.76228</v>
+        <v>41079.58417</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>31486.65315</v>
+        <v>43725.17243999999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>31799.08769</v>
+        <v>50328.16389</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>29974.50428</v>
+        <v>49524.33314</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>122131.69785</v>
+        <v>158963.33823</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>130118.61853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>178203.5079</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>192192.09</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>13304.56346</v>
+        <v>17908.76664</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>18595.11827</v>
+        <v>22518.74589</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>20227.64623</v>
+        <v>26716.86955</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>30822.44189</v>
+        <v>37202.21314</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>36776.04715</v>
+        <v>50186.81664</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20588.69262</v>
+        <v>30400.51329</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>25641.8619</v>
+        <v>36022.03474</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>24457.09219</v>
+        <v>41676.17066</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>23261.37613</v>
+        <v>35835.54081000001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>103341.13095</v>
+        <v>128252.32588</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>99483.55532000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>138658.19091</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>150811.256</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4329.0468</v>
+        <v>7328.10095</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>6003.384649999999</v>
+        <v>7814.069</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>9808.54775</v>
+        <v>12159.90686</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8171.94429</v>
+        <v>12567.52274</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5553.93639</v>
+        <v>15563.90026</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6028.81825</v>
+        <v>10866.03973</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3697.01286</v>
+        <v>7371.300310000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2716.87729</v>
+        <v>7782.73991</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3104.97337</v>
+        <v>6920.89792</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>17444.26152</v>
+        <v>27318.00332</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>22169.27832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>36935.50992</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>34978.134</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>4961.32979</v>
+        <v>4995.58021</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>6882.26951</v>
+        <v>7262.771229999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4409.58071</v>
+        <v>5230.03612</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>11964.87831</v>
+        <v>12521.04385</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>24388.30389</v>
+        <v>26075.01872</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>9299.71537</v>
+        <v>10945.31154</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>13772.37425</v>
+        <v>16556.69163</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>14961.33017</v>
+        <v>18713.43444</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>9328.5962</v>
+        <v>11593.46893</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>54090.18009</v>
+        <v>62586.80972</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>56275.12420999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>74569.17112</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>71250.197</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3956.68054</v>
+        <v>5527.57915</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4945.54235</v>
+        <v>6399.425899999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5873.561479999999</v>
+        <v>8954.48775</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>10579.63396</v>
+        <v>11942.69661</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6702.59642</v>
+        <v>7964.74916</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5251.97699</v>
+        <v>7834.75209</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7235.0787</v>
+        <v>9758.665200000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6321.240599999999</v>
+        <v>11960.69002</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>10529.52515</v>
+        <v>15110.15497</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>30255.66747</v>
+        <v>34981.45629</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>20150.57398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>24192.36406</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>40886.094</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>57.50633</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>763.9217600000001</v>
+        <v>1042.47976</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>135.95629</v>
+        <v>372.43882</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>105.98533</v>
+        <v>170.94994</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>131.21045</v>
+        <v>583.1485</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8.18201</v>
+        <v>754.40993</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>937.3960900000001</v>
+        <v>2335.3776</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>457.64413</v>
+        <v>3219.30629</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>298.28141</v>
+        <v>2211.01899</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1551.02187</v>
+        <v>3366.05655</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>888.57881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2961.14581</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3696.831</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3268.26014</v>
+        <v>4068.65512</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2956.33225</v>
+        <v>4803.91992</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5022.035110000001</v>
+        <v>5779.49077</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5444.766809999999</v>
+        <v>5139.644109999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6487.13617</v>
+        <v>6370.570100000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5451.06966</v>
+        <v>10679.07088</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5844.79125</v>
+        <v>7703.1377</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7341.9955</v>
+        <v>8651.99323</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6713.12815</v>
+        <v>13688.79233</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>18790.5669</v>
+        <v>30711.01235</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>30635.06321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>39545.31698999999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>41380.834</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4636.51628</v>
+        <v>7632.050429999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5057.47379</v>
+        <v>13350.25727</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>9365.086180000002</v>
+        <v>17005.50761</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>10523.84936</v>
+        <v>21538.66926</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>14200.66945</v>
+        <v>31129.08879</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>12093.77029</v>
+        <v>43466.18411</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>10441.06952</v>
+        <v>35697.40775</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>11376.41811</v>
+        <v>83581.75687000001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>15365.61865</v>
+        <v>42547.00429</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>32271.66861</v>
+        <v>65585.25906</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>38675.78748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>79138.43501</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>90117.128</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>30.89445</v>
+        <v>230.61076</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>221.02302</v>
+        <v>333.64682</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>78.54567</v>
+        <v>804.17353</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>80.70345</v>
+        <v>389.21208</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>306.25209</v>
+        <v>1178.1198</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>681.0862099999999</v>
+        <v>1805.23237</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>678.8161</v>
+        <v>2815.605329999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>284.38093</v>
+        <v>2188.60221</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>56.28879</v>
+        <v>2364.69247</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>402.26256</v>
+        <v>4446.496639999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2549.34935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3125.45297</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7171.133</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>448.33735</v>
+        <v>611.9336999999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>705.79243</v>
+        <v>763.94107</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2021.55428</v>
+        <v>2147.15958</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1413.51616</v>
+        <v>1755.06115</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1521.23543</v>
+        <v>2442.53315</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1135.51858</v>
+        <v>1543.20197</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>917.68326</v>
+        <v>1640.08867</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1114.96299</v>
+        <v>1775.67841</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1185.79452</v>
+        <v>2398.7962</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4962.7397</v>
+        <v>6521.01817</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4514.886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6289.95057</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4936.47</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4157.28448</v>
+        <v>6789.505970000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4130.65834</v>
+        <v>12252.66938</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>7264.98623</v>
+        <v>14054.1745</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>9029.62975</v>
+        <v>19394.39603</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>12373.18193</v>
+        <v>27508.43583999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>10277.1655</v>
+        <v>40117.74976999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>8844.570159999999</v>
+        <v>31241.71375</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>9977.074190000001</v>
+        <v>79617.47625000001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>14123.53534</v>
+        <v>37783.51562</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>26906.66635</v>
+        <v>54617.74425</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>31611.55213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>69723.03147</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>78009.52499999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-1368.25614</v>
+        <v>-3563.39531</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-2101.14154</v>
+        <v>-8546.33735</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-4343.05107</v>
+        <v>-11226.01684</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-5079.08255</v>
+        <v>-16399.02515</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-7713.53328</v>
+        <v>-24758.51869</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-6642.70063</v>
+        <v>-32787.11323</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-4596.27827</v>
+        <v>-27994.27005</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-4034.42261</v>
+        <v>-74929.76364</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-8652.4905</v>
+        <v>-28858.21196</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-13481.10171</v>
+        <v>-34874.24671</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-8040.72427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-39593.11801999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-48736.294</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>508.33583</v>
+        <v>2137.09256</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>481.01744</v>
+        <v>3786.87941</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>732.87512</v>
+        <v>5151.307390000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2530.97047</v>
+        <v>30224.12662</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>670.43551</v>
+        <v>6047.06638</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1063.00211</v>
+        <v>57461.42659</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>830.43713</v>
+        <v>175037.95146</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1202.4786</v>
+        <v>131289.01062</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1659.51437</v>
+        <v>108933.92084</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11290.54113</v>
+        <v>112949.96204</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6400.48683</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>123143.62505</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>216571.581</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>250.5877</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>424.06726</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>15.11432</v>
@@ -1781,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>228.58989</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>6770.17949</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1799,19 +1810,24 @@
         <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>15998.13934</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>53057.935</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>145.21609</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>46.97413</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1823,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>13275.34039</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>7797.80057</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>16162.5223</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>10</v>
+        <v>35193.37724</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>14.49539</v>
+        <v>362.75393</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>22.3197</v>
+        <v>901.85139</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>140.64361</v>
+        <v>665.80692</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>533.9563899999999</v>
+        <v>22265.61106</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>29.86512</v>
+        <v>1990.90547</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>27.0847</v>
+        <v>24487.60112</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34.01115</v>
+        <v>22151.64308</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>18.50251</v>
+        <v>34912.53769</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>320.4193</v>
+        <v>39168.9977</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2779.32742</v>
+        <v>54521.16237999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>321.14735</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>62351.13196</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>39665.472</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2.61215</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3.25891</v>
+        <v>424.81449</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>79.83606</v>
@@ -1904,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0</v>
+        <v>0.00121</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>13.29374</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1931,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0</v>
+        <v>455.27547</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>0</v>
@@ -1940,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>18.17389</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>46.60682</v>
+        <v>55.93133</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>0.09468</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>53.92119</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>0</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>113.41834</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4.353</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>0</v>
+        <v>1.32849</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>150</v>
+        <v>177.7562</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0</v>
+        <v>0.00507</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>2.16508</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>0</v>
+        <v>2.73532</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0</v>
+        <v>8.05369</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4.57</v>
+        <v>553.1167899999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>0.76789</v>
+        <v>27985.98421</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1.66156</v>
+        <v>1964.00664</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2.61561</v>
+        <v>5.782550000000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6.82215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4206.15072</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>833.65</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>145.34486</v>
+        <v>914.4354499999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>133.95304</v>
+        <v>818.0653100000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>256.47182</v>
+        <v>2828.70855</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1164.45062</v>
+        <v>4605.76206</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>411.22468</v>
+        <v>2996.685730000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>535.81535</v>
+        <v>17296.14807</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>621.93389</v>
+        <v>141704.78839</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>798.0823</v>
+        <v>41528.3232</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1025.85553</v>
+        <v>28677.78519</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6544.21855</v>
+        <v>55663.48078</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3633.88299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>36319.42286</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>102835.126</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>56.712</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>29.99424</v>
@@ -2111,94 +2162,109 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>4.53003</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>315.88919</v>
+        <v>430.16451</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>171.48579</v>
+        <v>993.35063</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>240.80931</v>
+        <v>1106.561</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>825.85979</v>
+        <v>3346.04983</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>229.34571</v>
+        <v>828.1499699999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>499.38382</v>
+        <v>2375.39119</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>123.31527</v>
+        <v>2774.67009</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>385.1259</v>
+        <v>3929.36905</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>301.57798</v>
+        <v>3862.53914</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1964.37955</v>
+        <v>2759.536329999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2325.191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4150.8318</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>20118.333</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>328.78302</v>
+        <v>1123.6731</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>229.46682</v>
+        <v>2650.05161</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>592.8180500000001</v>
+        <v>6037.127189999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2384.22448</v>
+        <v>4901.993619999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1465.48246</v>
+        <v>20054.44753</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1124.29608</v>
+        <v>40223.55484</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1455.18433</v>
+        <v>90116.60326999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1989.05412</v>
+        <v>57505.44478</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1836.21502</v>
+        <v>25124.33598</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>10857.99309</v>
+        <v>72223.73</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>16777.55314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>46611.62561</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>728585.914</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>10.8358</v>
+        <v>11.1068</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>8.84746</v>
@@ -2207,40 +2273,45 @@
         <v>0.5763400000000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1.09393</v>
+        <v>4.65759</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>16.98955</v>
+        <v>21.2698</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>0</v>
+        <v>1.27252</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1.22121</v>
+        <v>4.25754</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>529.69092</v>
+        <v>530.17654</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>346.73905</v>
+        <v>360.41388</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>401.34682</v>
+        <v>404.66537</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>4.84644</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>7.926</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>0.08599999999999999</v>
+        <v>601.9512</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>0</v>
@@ -2252,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>187.04161</v>
+        <v>224.99773</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>0</v>
+        <v>2571.91192</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>0</v>
+        <v>546.95906</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>65.60083999999999</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>76.086</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
@@ -2300,58 +2376,68 @@
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0</v>
+        <v>52.55042</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>1.55774</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>175.74509</v>
+        <v>809.74762</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>179.27852</v>
+        <v>1052.31687</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>85.49493</v>
+        <v>4965.313059999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1442.63665</v>
+        <v>2701.18722</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1186.27522</v>
+        <v>19341.94819</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>713.24256</v>
+        <v>18423.1711</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1287.39985</v>
+        <v>80386.83604000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>919.6158200000001</v>
+        <v>51536.75169</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>874.0661699999999</v>
+        <v>23497.79233</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8327.45991</v>
+        <v>61344.77918</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13442.02557</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>41721.63694</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>122503.397</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1.664</v>
@@ -2384,13 +2470,18 @@
         <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>47.76542</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>56.712</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.39876</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>11.211</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>140.13937</v>
+        <v>300.70032</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>17.04218</v>
+        <v>962.72342</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>506.7467799999999</v>
+        <v>1071.23779</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>940.4856500000001</v>
+        <v>2196.14056</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>262.21769</v>
+        <v>691.22954</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>224.01191</v>
+        <v>21574.11349</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>165.82847</v>
+        <v>9724.774890000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>539.74738</v>
+        <v>2866.60463</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>615.4098</v>
+        <v>666.62029</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2063.58552</v>
+        <v>10407.12687</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3254.59513</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4761.29081</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>606006.6679999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>179.28255</v>
+        <v>457.59919</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>293.24981</v>
+        <v>1486.65807</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>243.47672</v>
+        <v>3488.16773</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1563.22656</v>
+        <v>2670.25821</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>457.65532</v>
+        <v>2955.51567</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>341.0315</v>
+        <v>3926.29206</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>412.40794</v>
+        <v>44058.62134</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>328.47336</v>
+        <v>14569.34541</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>373.9031</v>
+        <v>5567.019289999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4201.27908</v>
+        <v>13067.48504</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2564.20764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15607.34096</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>25691.633</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>140.79655</v>
+        <v>419.11319</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>282.92915</v>
+        <v>1176.77179</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>243.47672</v>
+        <v>3488.16773</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1525.03686</v>
+        <v>2632.06851</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>407.64764</v>
+        <v>2905.50799</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>338.58014</v>
+        <v>3832.333349999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>412.40794</v>
+        <v>19769.1793</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>294.31499</v>
+        <v>12815.01543</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>315.89145</v>
+        <v>4753.924019999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3595.70696</v>
+        <v>9829.01359</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1997.82503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>14294.01168</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>25308.977</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>38.486</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>10.32066</v>
+        <v>309.8862800000001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>0</v>
@@ -2564,106 +2675,121 @@
         <v>50.00768</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2.45136</v>
+        <v>93.95871000000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>0</v>
+        <v>24289.44204</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>34.15837000000001</v>
+        <v>1754.32998</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>58.01165</v>
+        <v>813.09527</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>605.57212</v>
+        <v>3238.47145</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>566.38261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1313.32928</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>382.656</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1367.98588</v>
+        <v>-3007.57504</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2142.84073</v>
+        <v>-8896.167619999998</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-4446.470719999999</v>
+        <v>-15600.00437</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-6495.56312</v>
+        <v>6252.84964</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-8966.235549999999</v>
+        <v>-41721.41551</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-7045.026100000001</v>
+        <v>-19475.53354</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-5633.43341</v>
+        <v>12868.4568</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-5149.47149</v>
+        <v>-15715.54321</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-9203.09425</v>
+        <v>49384.35361</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-17249.83275</v>
+        <v>-7215.49971</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-20981.99822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>21331.54046</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-586442.26</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>216.34444</v>
+        <v>319.1694200000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>99.58036</v>
+        <v>1753.98432</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1792.43073</v>
+        <v>2309.6972</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>488.14264</v>
+        <v>1769.23773</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>673.97636</v>
+        <v>2996.19882</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2192.27327</v>
+        <v>4594.55586</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1113.62399</v>
+        <v>3600.93823</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1621.01169</v>
+        <v>88809.68867</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1973.68061</v>
+        <v>5593.20011</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4071.86406</v>
+        <v>8166.86475</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1622.75954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>9046.50764</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7739.398</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2672,346 +2798,389 @@
         <v>0</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>51.66686</v>
+        <v>75.38479</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>0.76149</v>
+        <v>0.81531</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1e-05</v>
+        <v>1.90133</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>196.58468</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>25.99116</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0</v>
+        <v>14.63877</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>743.83358</v>
+        <v>750.47428</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0.7519199999999999</v>
+        <v>82.54658999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>12.03655</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>473.46558</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>35.963</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>216.34444</v>
+        <v>319.1694200000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>99.58036</v>
+        <v>1753.98432</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1740.76387</v>
+        <v>2234.31241</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>487.38115</v>
+        <v>1768.42242</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>673.97635</v>
+        <v>2994.29749</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2192.27327</v>
+        <v>4397.97118</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1113.62399</v>
+        <v>3574.94707</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1621.01169</v>
+        <v>88795.04990000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1229.84703</v>
+        <v>4842.72583</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4071.11214</v>
+        <v>8084.31816</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1610.72299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8573.04206</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7703.435</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>272.23056</v>
+        <v>1215.58429</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>226.59189</v>
+        <v>7627.07638</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3777.97946</v>
+        <v>8514.313819999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>858.93873</v>
+        <v>4025.44043</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>947.16015</v>
+        <v>4246.04517</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1456.6415</v>
+        <v>8209.19608</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1702.93546</v>
+        <v>17331.51106</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4152.895869999999</v>
+        <v>27608.87843</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>914.3797499999999</v>
+        <v>13551.9448</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4288.97459</v>
+        <v>13418.55865</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18399.4733</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>41023.43251000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>31906.563</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>107.4747</v>
+        <v>636.6700800000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>14.66849</v>
+        <v>1171.67445</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>75.78907000000001</v>
+        <v>563.8586899999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>25.04569</v>
+        <v>477.96477</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>389.96081</v>
+        <v>2588.20543</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10.2896</v>
+        <v>1342.26993</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>126.80803</v>
+        <v>3221.61506</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>514.74514</v>
+        <v>6028.86335</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>223.26036</v>
+        <v>2429.74758</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>731.1675799999999</v>
+        <v>2506.55039</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1224.17077</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7110.5686</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>14380.065</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>15.84175</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9.807930000000001</v>
+        <v>129.03991</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>20.53523</v>
+        <v>136.12256</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>72.90987</v>
+        <v>440.45153</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>130.84204</v>
+        <v>208.1536</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>157.27476</v>
+        <v>1219.10964</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5.685689999999999</v>
+        <v>176.75178</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>48.848</v>
+        <v>389.28458</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>65.41748</v>
+        <v>392.06943</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9.789020000000001</v>
+        <v>171.14343</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>12107.64427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>12392.53607</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4121.058</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>148.91411</v>
+        <v>563.0724600000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>202.11547</v>
+        <v>6326.36202</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3681.65516</v>
+        <v>7814.33257</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>760.9831700000001</v>
+        <v>3107.02413</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>426.3573</v>
+        <v>1449.68614</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1289.07714</v>
+        <v>5647.81651</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1570.44174</v>
+        <v>13933.14422</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3589.30273</v>
+        <v>21190.7305</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>625.7019099999999</v>
+        <v>10730.12779</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3548.01799</v>
+        <v>10740.86483</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5067.65826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>21520.32784000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13405.44</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1423.872</v>
+        <v>-3903.98991</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-2269.85226</v>
+        <v>-14769.25968</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-6432.01945</v>
+        <v>-21804.62099</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-6866.35921</v>
+        <v>3996.64694</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-9239.41934</v>
+        <v>-42971.26186</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-6309.39433</v>
+        <v>-23090.17376</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-6222.74488</v>
+        <v>-862.1160299999998</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-7681.35567</v>
+        <v>45485.26703</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-8143.79339</v>
+        <v>41425.60892</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-17466.94328</v>
+        <v>-12467.19361</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-37758.71198000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-10645.38441</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-610609.425</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>221.78576</v>
+        <v>335.11935</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>89.56394999999999</v>
+        <v>297.90534</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>278.77782</v>
+        <v>443.5317400000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>269.46692</v>
+        <v>4744.50815</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>237.45206</v>
+        <v>386.32756</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>182.39754</v>
+        <v>4362.466289999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>237.4285</v>
+        <v>9316.027249999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>370.02868</v>
+        <v>13229.25211</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>159.24193</v>
+        <v>7469.2901</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1027.75789</v>
+        <v>11533.56984</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1882.01384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>14897.31266</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>11774.561</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1645.65776</v>
+        <v>-4239.10926</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-2359.41621</v>
+        <v>-15067.16502</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-6710.797270000001</v>
+        <v>-22248.15273</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-7135.826129999999</v>
+        <v>-747.8612099999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-9476.8714</v>
+        <v>-43357.58942</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-6491.79187</v>
+        <v>-27452.64005</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-6460.173380000001</v>
+        <v>-10178.14328</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-8051.38435</v>
+        <v>32256.01492</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-8303.035320000001</v>
+        <v>33956.31882</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-18494.70117</v>
+        <v>-24000.76345</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-39640.72582</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-25542.69707</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-622383.986</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>358</v>
+        <v>481</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>325</v>
+        <v>456</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>352</v>
+        <v>521</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>386</v>
+        <v>542</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>682</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>